--- a/data/xlsx/XRP.xlsx
+++ b/data/xlsx/XRP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1874"/>
+  <dimension ref="A1:B1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19175,6 +19175,46 @@
         <v>0.4936</v>
       </c>
     </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>0.4929</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>21-06-2023</t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>0.4999</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>0.4938</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>0.4961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
